--- a/sw/ai_accelerator/reference/benchmark.xlsx
+++ b/sw/ai_accelerator/reference/benchmark.xlsx
@@ -126,11 +126,21 @@
           <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Shapley Value Calculation Benchmark</a:t>
+              <a:t>Shapley Value Benchmarks</a:t>
             </a:r>
             <a:endParaRPr/>
           </a:p>
@@ -170,15 +180,7 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.109760"/>
-          <c:y val="0.130390"/>
-          <c:w val="0.866630"/>
-          <c:h val="0.739560"/>
-        </c:manualLayout>
+        <c:manualLayout/>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
@@ -190,12 +192,6 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>rv32imac</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -213,36 +209,11 @@
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$C$2:$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>O0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>O1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>O3</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$3:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>18861089</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4619908</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4406648</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -252,12 +223,6 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>rv32im</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -275,36 +240,11 @@
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$C$2:$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>O0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>O1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>O3</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$4:$E$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>18857334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4614195</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4407699</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -313,13 +253,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>rv32imac</c:v>
-                </c:pt>
-              </c:strCache>
+              <c:f>Sheet1!$B$5</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -337,52 +271,26 @@
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$C$2:$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>O0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>O1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>O3</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$5:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>20955636</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6632069</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6253451</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-26"/>
-        <c:axId val="1866169477"/>
-        <c:axId val="1866169478"/>
+        <c:axId val="1866169489"/>
+        <c:axId val="1866169490"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1866169477"/>
+        <c:axId val="1866169489"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -420,16 +328,15 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1866169478"/>
+        <c:crossAx val="1866169490"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1866169478"/>
+        <c:axId val="1866169490"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -484,7 +391,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1866169477"/>
+        <c:crossAx val="1866169489"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -500,12 +407,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:x val="0.000000"/>
-          <c:y val="-0.002700"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr bwMode="auto">
         <a:prstGeom prst="rect">
@@ -544,8 +446,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="4547869" y="486409"/>
-      <a:ext cx="5694679" cy="3918373"/>
+      <a:off x="4339589" y="657224"/>
+      <a:ext cx="5486400" cy="3617595"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -1161,26 +1063,26 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>577003</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>113876</xdr:rowOff>
+      <xdr:colOff>369569</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>108584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>175683</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>369569</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>120649</xdr:rowOff>
+      <xdr:rowOff>68579</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="661341921" name=""/>
+        <xdr:cNvPr id="940150708" name=""/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4547869" y="486409"/>
-        <a:ext cx="5694679" cy="3918373"/>
+        <a:off x="4339589" y="657224"/>
+        <a:ext cx="5486400" cy="3617595"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
